--- a/docs/products/competitors.xlsx
+++ b/docs/products/competitors.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'3D Scanners'!$A$1:$C$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$2:$T$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Competitors!$A$2:$T$81</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="155">
   <si>
     <t>Software</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t>MakePrintable</t>
+  </si>
+  <si>
+    <t>Ime3D</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -782,10 +785,19 @@
     <xf numFmtId="6" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -797,13 +809,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1084,13 +1090,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:T80"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B18" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1118,46 +1124,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="31" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="27" t="s">
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="25.5">
-      <c r="A2" s="28"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1203,9 +1209,9 @@
       <c r="Q2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
     </row>
     <row r="3" spans="1:20" hidden="1">
       <c r="A3" s="8" t="s">
@@ -2899,7 +2905,7 @@
       <c r="S47" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="T47" s="34" t="s">
+      <c r="T47" s="27" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4097,15 +4103,53 @@
         <v>36</v>
       </c>
     </row>
+    <row r="81" spans="1:20" hidden="1">
+      <c r="A81" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="22"/>
+      <c r="R81" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S81" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T81" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:T80">
+  <autoFilter ref="A2:T81">
     <filterColumn colId="1">
       <filters>
         <filter val="Printing"/>
       </filters>
     </filterColumn>
     <sortState ref="A7:T80">
-      <sortCondition ref="A2:A75"/>
+      <sortCondition ref="A2:A81"/>
     </sortState>
   </autoFilter>
   <sortState ref="A3:T50">
@@ -4189,9 +4233,10 @@
     <hyperlink ref="A33" r:id="rId65"/>
     <hyperlink ref="A79" r:id="rId66"/>
     <hyperlink ref="A67" r:id="rId67"/>
+    <hyperlink ref="A81" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
 
